--- a/data/Suppliers_NEW.xlsx
+++ b/data/Suppliers_NEW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\OP_Night_Shift\New_Dash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7414A430-7912-487F-9221-109D0EA9A613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBBB927-F2F5-46BC-947C-6B24154175FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="2730" windowWidth="25260" windowHeight="11295" xr2:uid="{D97182B8-2AAB-4EC4-A672-4DC70ACE523F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D97182B8-2AAB-4EC4-A672-4DC70ACE523F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
   <si>
     <t>Round</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>Transport costs</t>
+  </si>
+  <si>
+    <t>Mango discounter</t>
+  </si>
+  <si>
+    <t>TM Additives</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116934	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143913	</t>
   </si>
 </sst>
 </file>
@@ -554,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105D5829-107D-4C7E-9FBF-03E4168A7BA9}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,6 +1129,252 @@
         <v>1628</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="G14" s="4">
+        <v>397903</v>
+      </c>
+      <c r="H14" s="5">
+        <v>52.221499999999999</v>
+      </c>
+      <c r="I14" s="5">
+        <v>6.8936999999999999</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="4">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>587660</v>
+      </c>
+      <c r="H15" s="5">
+        <v>46.603299999999997</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1.8883000000000001</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="4">
+        <v>317913</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="G16" s="4">
+        <v>112931</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-51.9253</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="4">
+        <v>542229</v>
+      </c>
+      <c r="M16" s="4">
+        <v>62036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>30000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>40.463700000000003</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.7492000000000001</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="4">
+        <v>108634</v>
+      </c>
+      <c r="M17" s="4">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1026</v>
+      </c>
+      <c r="H18" s="5">
+        <v>-20.5</v>
+      </c>
+      <c r="I18" s="5">
+        <v>-51.9253</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="4">
+        <v>8639</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>383</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20.593684</v>
+      </c>
+      <c r="I19" s="1">
+        <v>78.962879999999998</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="6">
+        <v>9353</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1921</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Suppliers_NEW.xlsx
+++ b/data/Suppliers_NEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\OP_Night_Shift\New_Dash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBBB927-F2F5-46BC-947C-6B24154175FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42803C2-07D7-4D3D-A8D1-08D8D424F95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D97182B8-2AAB-4EC4-A672-4DC70ACE523F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="55">
   <si>
     <t>Round</t>
   </si>
@@ -168,6 +168,39 @@
   </si>
   <si>
     <t xml:space="preserve">143913	</t>
+  </si>
+  <si>
+    <t>Capsule (orange)</t>
+  </si>
+  <si>
+    <t>Capsule (red)</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Riesling</t>
+  </si>
+  <si>
+    <t>Style cups</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>FTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50150	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109424	</t>
   </si>
 </sst>
 </file>
@@ -218,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,6 +270,12 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,17 +611,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105D5829-107D-4C7E-9FBF-03E4168A7BA9}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="23.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="19" style="3" customWidth="1"/>
@@ -1375,6 +1414,375 @@
         <v>1921</v>
       </c>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>51.165700000000001</v>
+      </c>
+      <c r="I20" s="3">
+        <v>10.451499999999999</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="4">
+        <v>108158</v>
+      </c>
+      <c r="M20" s="4">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1134689</v>
+      </c>
+      <c r="H21" s="5">
+        <v>46.603299999999997</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.8883000000000001</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="4">
+        <v>317894</v>
+      </c>
+      <c r="M21" s="4">
+        <v>143371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>10828700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>49.286700000000003</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-123.12009999999999</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2539689</v>
+      </c>
+      <c r="M22" s="4">
+        <v>25546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2126484</v>
+      </c>
+      <c r="H23" s="7">
+        <v>45.421500000000002</v>
+      </c>
+      <c r="I23" s="7">
+        <v>-75.697199999999995</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="4">
+        <v>411602</v>
+      </c>
+      <c r="M23" s="4">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1015537</v>
+      </c>
+      <c r="H24" s="8">
+        <v>39.904200000000003</v>
+      </c>
+      <c r="I24" s="8">
+        <v>116.4074</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="G25" s="4">
+        <v>447624</v>
+      </c>
+      <c r="H25" s="5">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="I25" s="5">
+        <v>-51.9253</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2615562</v>
+      </c>
+      <c r="M25" s="4">
+        <v>292448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G26" s="4">
+        <v>18797</v>
+      </c>
+      <c r="H26" s="3">
+        <v>40.463700000000003</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3.7492000000000001</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="4">
+        <v>5435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="G27" s="4">
+        <v>12377</v>
+      </c>
+      <c r="H27" s="5">
+        <v>-20.5</v>
+      </c>
+      <c r="I27" s="5">
+        <v>-51.9253</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="4">
+        <v>80462</v>
+      </c>
+      <c r="M27" s="4">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>509</v>
+      </c>
+      <c r="H28" s="1">
+        <v>20.593684</v>
+      </c>
+      <c r="I28" s="1">
+        <v>78.962879999999998</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="6">
+        <v>9022</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1634</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
